--- a/AutoService/ExcelPatterns/ExcelPatternAct.xlsx
+++ b/AutoService/ExcelPatterns/ExcelPatternAct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ИП Крутов Иван Николаевич</t>
   </si>
@@ -305,12 +305,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -335,27 +353,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -374,9 +380,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -415,9 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45:R45"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,111 +743,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -895,495 +895,495 @@
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="40" t="s">
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="41"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>5</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>6</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>10</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>11</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>12</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="26"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>15</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="20"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>16</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="26"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>19</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>20</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
     </row>
     <row r="29" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
     </row>
     <row r="30" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
@@ -1411,414 +1411,412 @@
       <c r="A31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="7" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="49" t="s">
+      <c r="O31" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49" t="s">
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="49"/>
+      <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>1</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="26"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>2</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="26"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>3</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="26"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>4</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="26"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>5</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="20"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="26"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>6</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="26"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>7</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="26"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>8</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="26"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>9</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="20"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="26"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>10</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="26"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>11</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="26"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>12</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="26"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>13</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="26"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="21" t="s">
+      <c r="L46" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
     </row>
     <row r="48" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
-      <c r="R48" s="50"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="L49" s="43" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="L49" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -1828,48 +1826,48 @@
       <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="L51" s="44" t="s">
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="L51" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="46" t="s">
+      <c r="L52" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="47"/>
     </row>
     <row r="54" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1897,6 @@
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q46:R46"/>
     <mergeCell ref="Q38:R38"/>
     <mergeCell ref="O9:P9"/>
@@ -1923,44 +1920,33 @@
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B23:L23"/>
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="B25:L25"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="O35:P35"/>
-    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="Q27:R27"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B44:L44"/>
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="Q41:R41"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="B41:L41"/>
-    <mergeCell ref="B42:L42"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B39:L39"/>
-    <mergeCell ref="B40:L40"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B38:L38"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
     <mergeCell ref="Q43:R43"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B33:L33"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="Q12:R12"/>
@@ -1980,6 +1966,9 @@
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
     <mergeCell ref="D4:R4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -2004,6 +1993,15 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O43:P43"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="B38:M38"/>
+    <mergeCell ref="B39:M39"/>
+    <mergeCell ref="B40:M40"/>
+    <mergeCell ref="B41:M41"/>
+    <mergeCell ref="B42:M42"/>
+    <mergeCell ref="B43:M43"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="B31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
